--- a/Income/AMZN_inc.xlsx
+++ b/Income/AMZN_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -96,7 +96,7 @@
     <col min="21" max="21" bestFit="1" customWidth="1" width="17.6"/>
     <col min="22" max="22" bestFit="1" customWidth="1" width="17.6"/>
     <col min="23" max="23" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="24" max="24" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="24" max="24" bestFit="1" customWidth="1" width="17.6"/>
     <col min="25" max="25" bestFit="1" customWidth="1" width="16.5"/>
     <col min="26" max="26" bestFit="1" customWidth="1" width="16.5"/>
     <col min="27" max="27" bestFit="1" customWidth="1" width="16.5"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="16.5"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="16.5"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>419130000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>386064000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>347946000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>321782000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>296274000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>280522000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>265468000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>252063000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>241545000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>232887000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>220957000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>208125000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>193194000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>177866000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>161154000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>150124000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>142573000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>135987000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>127992000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>120636000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>113417000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>107006000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>100588000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>95809000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>91964000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>88988000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>85246000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>81759000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>78123000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>74452000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>70134000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>66848000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>63978000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>61093000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>57256000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>54326000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>51405000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>48077000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>43593000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>40277000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>251453000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>233307000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>208000000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>192196000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>175873000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>165536000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>156345000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>148046000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>142341000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>139156000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>132864000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>127410000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>120229000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>111934000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>102399000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>96110000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>91839000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>88265000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>83647000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>79142000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>75122000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>71651000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>67981000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>65853000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>64092000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>62752000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>60886000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>58625000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>56435000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>54181000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>51513000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>49466000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>47745000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>45971000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>43664000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>41670000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>39707000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>37288000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>33775000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>31236000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>167677000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>152757000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>139946000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>129586000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>120401000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>114986000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>109123000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>104017000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>99204000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>93731000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>88093000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>80715000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>72965000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>65932000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>58755000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>54014000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>50734000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>47722000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>44345000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>41494000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>38295000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>35355000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>32607000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>29956000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>27872000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>26236000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>24360000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>23134000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>21688000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>20271000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>18621000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>17382000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>16233000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>15122000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>13592000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>12656000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>11698000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>10789000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>9818000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>9041000000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>45901000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>42738000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>40429000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>38653000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>37330000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>35932000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>33861000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>31823000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>30005000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>28837000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>27482000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>26264000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>24566000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>22620000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>20850000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>19041000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>17372000000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>16085000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>15110000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>14172000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>13312000000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>12540000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>11606000000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>10832000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>10038000000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>9275000000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>8502000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>7813000000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>7173000000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>6565000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>6048000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>5506000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>5002000000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>4564000000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>4082000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>3659000000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>3275000000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>2909000000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>2564000000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>2237000000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>94107000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>87194000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>79125000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>73585000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>68686000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>64313000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>60593000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>56945000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>54057000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>52177000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>49581000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>46821000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>43138000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>38992000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>34480000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>31333000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>29076000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>27284000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>25028000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>23273000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>21762000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>20411000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>19111000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>18196000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>17405000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>16650000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>15627000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>14591000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>13687000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>12847000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>11821000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>11095000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>10422000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>9723000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>8815000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>8201000000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>7524000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>6864000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>6038000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>5410000000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>27775000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>22899000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>19906000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>16869000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>14110000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>14541000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>14448000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>15015000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>14914000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>12421000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>10760000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>7383000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>5028000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>4106000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>3235000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>3463000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>4120000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>4186000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>4039000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>3870000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>3049000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>2233000000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>1716000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>766000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>287000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>178000000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>97000000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>616000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>710000000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>745000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>640000000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>637000000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>665000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>676000000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>531000000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>638000000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>732000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>862000000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>1076000000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>1265000000.0</v>
       </c>
     </row>
@@ -989,17 +1011,17 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>1647000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>1688000000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1176,6 +1198,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1188,120 +1215,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>1256000000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>-561000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>256000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>-832000000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>-913000000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>-518000000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>-1176000000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>-985000000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>-1168000000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>-1160000000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>-978000000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>-675000000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>-259000000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>-300000000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>-134000000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>-187000000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>-331000000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>-294000000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>-375000000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>-450000000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>-446000000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>-665000000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>-656000000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>-587000000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>-497000000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>-289000000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>-187000000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>-115000000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>-165000000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>-239000000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>-249000000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>-225000000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>-124000000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>-132000000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>-51000000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>-6000000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>-21000000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>72000000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>93000000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>66000000.0</v>
       </c>
     </row>
@@ -1312,120 +1342,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>752000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>555000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>666000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>944000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>1192000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>1356000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>1531000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>1493000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>1453000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>1417000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>1369000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>1239000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>1039000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>848000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>643000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>533000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>506000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>484000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>465000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>463000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>461000000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>459000000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>419000000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>352000000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>283000000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>210000000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>175000000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>162000000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>150000000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>141000000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>130000000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>116000000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>104000000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>92000000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>85000000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>80000000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>74000000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>65000000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>56000000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>50000000.0</v>
       </c>
     </row>
@@ -1436,120 +1469,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>31063000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>24178000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>20466000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>16289000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>12957000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>13975000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>13272000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>14030000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>13746000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>11261000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>9782000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>6708000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>4769000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>3806000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>3101000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>3276000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>3789000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>3892000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>3664000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>3420000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>2603000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>1568000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>1060000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>179000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>-210000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>-111000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>-90000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>501000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>545000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>506000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>391000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>412000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>541000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>544000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>480000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>632000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>711000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>934000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>1169000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>1331000000.0</v>
       </c>
     </row>
@@ -1560,120 +1596,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>4275000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>2863000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>3083000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>3008000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>2281000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>2373000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>1915000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>1929000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>1746000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>1197000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>884000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>434000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>827000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>769000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>1168000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>1339000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>1179000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>1425000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>1463000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>1395000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>1354000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>950000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>703000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>337000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>165000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>167000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>140000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>333000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>252000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>161000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>176000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>271000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>367000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>428000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>321000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>305000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>245000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>291000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>290000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>302000000.0</v>
       </c>
     </row>
@@ -1684,120 +1723,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>26788000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>21315000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>17383000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>13281000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>10676000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>11602000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>11357000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>12101000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>12000000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>10064000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>8898000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>6274000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>3942000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>3037000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>1933000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>1937000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>2610000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>2467000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>2201000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>2025000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>1249000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>618000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>357000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>-158000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>-375000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>-278000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>-230000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>168000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>293000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>345000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>215000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>141000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>174000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>116000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>159000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>327000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>466000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>643000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>879000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>1029000000.0</v>
       </c>
     </row>
@@ -1808,124 +1850,127 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>115000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>16000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>-6000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>-101000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>-114000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>-14000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>-10000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>-5000000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>5000000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>9000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>2000000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>-1000000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P14" s="0" t="n">
         <v>-17000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>-30000000.0</v>
       </c>
-      <c r="Q14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>-96000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>-97000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>-94000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>-83000000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>-22000000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>-29000000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>-30000000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>-31000000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>37000000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>15000000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>13000000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>7000000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>-71000000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>-83000000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>-242000000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>-261000000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>-155000000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>-120000000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>49000000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>94000000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>-12000000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>-9000000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>9000000.0</v>
       </c>
     </row>
@@ -1936,120 +1981,123 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>26903000000.0</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>21331000000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>17377000000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>13180000000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>10562000000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>11588000000.0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>11347000000.0</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>12096000000.0</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>12005000000.0</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>10073000000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>8902000000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>6275000000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>3938000000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>3033000000.0</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>1926000000.0</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>1922000000.0</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>2582000000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>2371000000.0</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>2104000000.0</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>1931000000.0</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>1166000000.0</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>596000000.0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>328000000.0</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>-188000000.0</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>-406000000.0</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>-241000000.0</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>-215000000.0</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>181000000.0</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>300000000.0</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>274000000.0</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>132000000.0</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>-101000000.0</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>-87000000.0</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>-39000000.0</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>39000000.0</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>376000000.0</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>560000000.0</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>631000000.0</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>870000000.0</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>1038000000.0</v>
       </c>
     </row>
@@ -2059,121 +2107,126 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>41.76</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>34.15</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>26.09</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>21.11</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>23.34</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>23.05</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>24.65</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>24.54</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>20.66</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>18.33</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>12.95</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>8.15</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>6.31</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>4.03</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>4.03</v>
       </c>
       <c r="Q16" s="0" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="R16" s="0" t="n">
         <v>5.43</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>5.0</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>4.46</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>4.1</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>2.49</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>1.28</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>-0.41</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>-0.88</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>-0.53</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.28</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>-0.23</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>-0.19</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>-0.08</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.84</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>1.24</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>1.4</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>1.93</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>2.31</v>
       </c>
     </row>
@@ -2183,121 +2236,126 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.3957</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.4022</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.4027</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.4064</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.4099</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.4111</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.4127</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.4107</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.4025</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.3987</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.3878</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.3777</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.3707</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.3646</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.3598</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.3558</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.3509</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.3465</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.344</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.3376</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.3304</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.3242</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.3127</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.3031</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.2948</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.2858</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.283</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.2776</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.2723</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.2655</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.26</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.2537</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.2475</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.2374</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.2276</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.2244</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.2252</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.2245</v>
       </c>
     </row>
@@ -2307,121 +2365,126 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.0593</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.0572</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.0524</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.0476</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.0518</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.0544</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.0596</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.0617</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.0533</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.0487</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.0355</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.026</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.0231</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.0201</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.0231</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.0289</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.0308</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.0316</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.0321</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.0269</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.0209</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.0171</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.0031</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.0011</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.0075</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.0091</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.0091</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.0095</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.0104</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>0.0111</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.0093</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.0117</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.0142</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.0179</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.0247</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.0314</v>
       </c>
     </row>
@@ -2431,121 +2494,126 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.0626</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.0588</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.0506</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>0.0437</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>0.0498</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.0557</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.0569</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.0484</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.0443</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.0322</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.0247</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.0214</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.0192</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.0218</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>0.0266</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>0.0286</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>0.0286</v>
       </c>
       <c r="T19" s="0" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="U19" s="0" t="n">
         <v>0.0283</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.023</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.0147</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.0105</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.0019</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>-0.0023</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>-0.0012</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>-0.0011</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.0061</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.0068</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.0056</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.0062</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.0089</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.0084</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.0116</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.0138</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.0194</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.0268</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.033</v>
       </c>
     </row>
@@ -2555,121 +2623,126 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.0553</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>0.0499</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.041</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>0.0356</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>0.0413</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>0.0427</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.048</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.0497</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.0433</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>0.0403</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>0.0302</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>0.0204</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.0171</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.0128</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>0.0181</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>0.0174</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>0.0164</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>0.0103</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>0.0056</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>0.0033</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>-0.002</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>-0.0044</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>-0.0027</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>-0.0025</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>0.0022</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>0.0038</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>0.0037</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>0.0019</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>-0.0015</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>-0.0014</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>-0.0006</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>0.0007</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>0.0069</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>0.0109</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>0.0131</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>0.0258</v>
       </c>
     </row>
@@ -2679,121 +2752,126 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>0.0803</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>0.0848</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>0.099</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>0.0821</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>0.0921</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>0.0884</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>0.0992</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>0.0954</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>0.0833</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>0.0695</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>0.0501</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>0.0376</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>0.0467</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>0.049</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>0.0639</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>0.071</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>0.077</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>0.0717</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>0.0644</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>0.059</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>0.0696</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>0.0537</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>0.0456</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>0.0344</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>0.0219</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>0.0126</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>0.0127</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>0.0191</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>0.0273</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>0.0055</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>0.0039</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>0.0028</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>0.0065</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>0.0185</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>0.0202</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>0.0224</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>0.0435</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>0.0352</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>0.0448</v>
       </c>
     </row>
@@ -2803,121 +2881,126 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>48076000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>44195000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>40136000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>36541000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>36394000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>34329000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>33111000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>31438000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>27762000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>25337000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>21094000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>17742000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>15584000000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>13512000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>12911000000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>12844000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>12302000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>11610000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>10957000000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>9731000000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>8514000000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>7625000000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>6323000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>5449000000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>4924000000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>4425000000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>4531000000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>4273000000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>3998000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>3593000000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>3311000000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>3067000000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>2835000000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>2387000000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>2217000000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>2070000000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>1945000000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>1969000000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>2030000000.0</v>
       </c>
     </row>
@@ -2928,120 +3011,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>27775000000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>22899000000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>19906000000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>16869000000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>14110000000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>14541000000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>14448000000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>15015000000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>14914000000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>12421000000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>10760000000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>7383000000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>5028000000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>4106000000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>3235000000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>3463000000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>4120000000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>4186000000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>4039000000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>3870000000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>3049000000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>2233000000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>1716000000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>766000000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>287000000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>178000000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>97000000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>616000000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>710000000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>745000000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>640000000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>637000000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>665000000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>676000000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>531000000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>638000000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>732000000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>862000000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>1076000000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>1265000000.0</v>
       </c>
     </row>
@@ -3052,120 +3138,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>52.6187</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>41.8255</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>34.1213</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>25.9902</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>20.9083</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>22.992</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>22.5988</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>24.1192</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>23.9685</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>20.146</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>17.8496</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>12.6133</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>7.9457</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>6.1522</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>3.9345</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>3.9359</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>5.3098</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>4.8987</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>4.3739</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>4.0196</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>2.4386</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>1.2495</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>0.7007</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>-0.4084</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>-0.875</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>-0.5216</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>-0.4691</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>0.385</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>0.6429</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>0.5892</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>0.2942</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>-0.2223</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>-0.1916</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>-0.0861</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>0.0707</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>0.8136</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>1.2135</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>1.3688</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>1.896</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>2.2659</v>
       </c>
     </row>
@@ -3176,120 +3265,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>53.6569</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>42.662</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>34.7824</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>26.4568</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>21.2953</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>23.4574</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>23.0844</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>24.6811</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>24.5706</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>20.6838</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>18.3449</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>12.9693</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>8.1666</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>6.3187</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>4.0308</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>4.0302</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>5.4307</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>5.0021</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>4.4656</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>4.1028</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>1.2762</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>0.7039</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>-0.4087</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>-0.879</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>-0.5216</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>-0.4579</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>0.3962</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>0.6541</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>0.5995</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>0.2927</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>-0.2238</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>-0.1929</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>-0.0861</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>0.0832</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>0.8282</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>1.2343</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>1.393</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>1.9327</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>2.3095</v>
       </c>
     </row>
@@ -3300,120 +3392,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>53.6569</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>42.662</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>34.7824</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>26.4568</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>21.2953</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>23.4574</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>23.0844</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>24.6811</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>24.5706</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>20.6838</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>18.3449</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>12.9693</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>8.1666</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>6.3187</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>4.0308</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>4.0302</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>5.4307</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>5.0021</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>4.4656</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>4.1028</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>1.2762</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>0.7039</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>-0.4087</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>-0.879</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>-0.5216</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>-0.4579</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>0.3962</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>0.6541</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>0.5995</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>0.2927</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>-0.2238</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>-0.1929</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>-0.0861</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>0.0832</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>0.8282</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>1.2343</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>1.393</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>1.9327</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>2.3095</v>
       </c>
     </row>
@@ -3424,120 +3519,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>26903000000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>21331000000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>17377000000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>13180000000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>10562000000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>11588000000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>11347000000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>12096000000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>12005000000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>10073000000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>8902000000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>6275000000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>3938000000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>3033000000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>1926000000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>1922000000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>2582000000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>2371000000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>2104000000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>1931000000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>1166000000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>596000000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>328000000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>-188000000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>-406000000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>-241000000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>-215000000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>181000000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>300000000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>274000000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>132000000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>-101000000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>-87000000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>-39000000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>39000000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>376000000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>560000000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>631000000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>870000000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>1038000000.0</v>
       </c>
     </row>
@@ -3548,120 +3646,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>26903000000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>21331000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>17377000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>13180000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>10562000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>11588000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>11347000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>12096000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>12005000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>10073000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>8902000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>6275000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>3938000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>3033000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>1926000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>1922000000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>2582000000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>2371000000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>2104000000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>1931000000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>1166000000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>596000000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>328000000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>-188000000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>-406000000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>-241000000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>-215000000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>181000000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>300000000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>274000000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>132000000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>-101000000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>-87000000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>-39000000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>39000000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>376000000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>560000000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>631000000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>870000000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>1038000000.0</v>
       </c>
     </row>
@@ -3671,121 +3772,126 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>0.1245</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>0.127</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>0.1247</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>0.1233</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>0.1297</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>0.1293</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.1314</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>0.1302</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>0.1192</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>0.1147</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>0.1014</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>0.0918</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>0.0876</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>0.0838</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>0.086</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>0.0901</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>0.0905</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>0.0907</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>0.0908</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>0.0858</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>0.0796</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>0.0758</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>0.0593</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>0.0553</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>0.0519</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>0.0554</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>0.0547</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>0.0537</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>0.0512</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>0.0495</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>0.0479</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>0.0464</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>0.0417</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>0.0408</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>0.0403</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>0.0405</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>0.0452</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>0.0504</v>
       </c>
     </row>
@@ -3795,121 +3901,126 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>0.1711</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>0.1589</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>0.1592</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>0.1341</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>0.1373</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>0.1331</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>0.1429</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>0.1423</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>0.1319</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>0.1204</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>0.1047</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>0.0942</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>0.1033</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>0.105</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>0.1186</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>0.123</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>0.1265</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>0.1189</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>0.1091</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>0.1021</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>0.1125</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>0.0977</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>0.0937</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>0.0853</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>0.0769</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>0.0669</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>0.0652</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>0.0684</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>0.0735</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>0.071</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>0.0678</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>0.0664</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>0.0684</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>0.0588</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>0.0593</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>0.0594</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>0.0812</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>0.0716</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>0.079</v>
       </c>
     </row>

--- a/Income/AMZN_inc.xlsx
+++ b/Income/AMZN_inc.xlsx
@@ -2236,10 +2236,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.4001</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.3957</v>
@@ -2365,10 +2363,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0663</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0593</v>
@@ -2494,10 +2490,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0741</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0626</v>
@@ -2623,10 +2617,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.0642</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.0553</v>
@@ -2752,10 +2744,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>0.063</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0.0803</v>
@@ -2881,10 +2871,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>55028000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>48076000000.0</v>
@@ -3772,10 +3760,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.1245</v>
@@ -3901,10 +3887,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>0.1604</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.1711</v>
